--- a/ProjetoWernerAdv/planilha.xlsx
+++ b/ProjetoWernerAdv/planilha.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Data</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Valor Total Devido</t>
   </si>
   <si>
-    <t>JAN/2018</t>
-  </si>
-  <si>
-    <t>FEV/2018</t>
-  </si>
-  <si>
     <t>MAR/2018</t>
   </si>
   <si>
@@ -240,39 +234,6 @@
   </si>
   <si>
     <t>MAR/2023</t>
-  </si>
-  <si>
-    <t>ABR/2023</t>
-  </si>
-  <si>
-    <t>MAI/2023</t>
-  </si>
-  <si>
-    <t>JUN/2023</t>
-  </si>
-  <si>
-    <t>JUL/2023</t>
-  </si>
-  <si>
-    <t>AGO/2023</t>
-  </si>
-  <si>
-    <t>SET/2023</t>
-  </si>
-  <si>
-    <t>OUT/2023</t>
-  </si>
-  <si>
-    <t>NOV/2023</t>
-  </si>
-  <si>
-    <t>DEC/2023</t>
-  </si>
-  <si>
-    <t>DEC2/2023</t>
-  </si>
-  <si>
-    <t>JAN/2024</t>
   </si>
   <si>
     <t/>
@@ -323,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -378,16 +339,16 @@
         <v>162.4</v>
       </c>
       <c r="E2" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F2" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G2" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H2" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="3">
@@ -404,16 +365,16 @@
         <v>162.4</v>
       </c>
       <c r="E3" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F3" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G3" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H3" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +391,16 @@
         <v>162.4</v>
       </c>
       <c r="E4" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F4" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G4" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H4" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="5">
@@ -456,16 +417,16 @@
         <v>162.4</v>
       </c>
       <c r="E5" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F5" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G5" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H5" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="6">
@@ -482,16 +443,16 @@
         <v>162.4</v>
       </c>
       <c r="E6" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F6" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G6" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H6" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="7">
@@ -508,16 +469,16 @@
         <v>162.4</v>
       </c>
       <c r="E7" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F7" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G7" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H7" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="8">
@@ -534,16 +495,16 @@
         <v>162.4</v>
       </c>
       <c r="E8" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F8" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G8" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H8" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="9">
@@ -560,16 +521,16 @@
         <v>162.4</v>
       </c>
       <c r="E9" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F9" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G9" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H9" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="10">
@@ -586,16 +547,16 @@
         <v>162.4</v>
       </c>
       <c r="E10" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F10" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G10" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H10" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="11">
@@ -612,16 +573,16 @@
         <v>162.4</v>
       </c>
       <c r="E11" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F11" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G11" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H11" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="12">
@@ -638,16 +599,16 @@
         <v>162.4</v>
       </c>
       <c r="E12" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F12" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>227976.0</v>
       </c>
       <c r="G12" t="n" s="1">
-        <v>97.44</v>
+        <v>9744.0</v>
       </c>
       <c r="H12" t="n" s="1">
-        <v>259.84</v>
+        <v>9906.4</v>
       </c>
     </row>
     <row r="13">
@@ -658,22 +619,22 @@
         <v>3637.2</v>
       </c>
       <c r="C13" t="n" s="1">
-        <v>3799.6</v>
+        <v>3958.04</v>
       </c>
       <c r="D13" t="n" s="1">
-        <v>162.4</v>
+        <v>320.84</v>
       </c>
       <c r="E13" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F13" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>237482.4</v>
       </c>
       <c r="G13" t="n" s="1">
-        <v>97.44</v>
+        <v>19250.4</v>
       </c>
       <c r="H13" t="n" s="1">
-        <v>259.84</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="14">
@@ -684,22 +645,22 @@
         <v>3637.2</v>
       </c>
       <c r="C14" t="n" s="1">
-        <v>3799.6</v>
+        <v>3958.04</v>
       </c>
       <c r="D14" t="n" s="1">
-        <v>162.4</v>
+        <v>320.84</v>
       </c>
       <c r="E14" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F14" t="n" s="1">
-        <v>2279.7599999999998</v>
+        <v>237482.4</v>
       </c>
       <c r="G14" t="n" s="1">
-        <v>97.44</v>
+        <v>19250.4</v>
       </c>
       <c r="H14" t="n" s="1">
-        <v>259.84</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="15">
@@ -716,16 +677,16 @@
         <v>320.84</v>
       </c>
       <c r="E15" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F15" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G15" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H15" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="16">
@@ -742,16 +703,16 @@
         <v>320.84</v>
       </c>
       <c r="E16" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F16" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G16" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H16" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +729,16 @@
         <v>320.84</v>
       </c>
       <c r="E17" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F17" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G17" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H17" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="18">
@@ -794,16 +755,16 @@
         <v>320.84</v>
       </c>
       <c r="E18" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F18" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G18" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H18" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="19">
@@ -820,16 +781,16 @@
         <v>320.84</v>
       </c>
       <c r="E19" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F19" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G19" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H19" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="20">
@@ -846,16 +807,16 @@
         <v>320.84</v>
       </c>
       <c r="E20" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F20" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G20" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H20" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="21">
@@ -872,16 +833,16 @@
         <v>320.84</v>
       </c>
       <c r="E21" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F21" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G21" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H21" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="22">
@@ -898,16 +859,16 @@
         <v>320.84</v>
       </c>
       <c r="E22" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F22" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G22" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H22" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="23">
@@ -924,16 +885,16 @@
         <v>320.84</v>
       </c>
       <c r="E23" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F23" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G23" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H23" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="24">
@@ -950,16 +911,16 @@
         <v>320.84</v>
       </c>
       <c r="E24" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F24" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G24" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H24" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="25">
@@ -976,16 +937,16 @@
         <v>320.84</v>
       </c>
       <c r="E25" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F25" t="n" s="1">
-        <v>2374.824</v>
+        <v>237482.4</v>
       </c>
       <c r="G25" t="n" s="1">
-        <v>192.5</v>
+        <v>19250.4</v>
       </c>
       <c r="H25" t="n" s="1">
-        <v>513.34</v>
+        <v>19571.24</v>
       </c>
     </row>
     <row r="26">
@@ -996,22 +957,22 @@
         <v>3637.2</v>
       </c>
       <c r="C26" t="n" s="1">
-        <v>3958.04</v>
+        <v>4466.39</v>
       </c>
       <c r="D26" t="n" s="1">
-        <v>320.84</v>
+        <v>829.19</v>
       </c>
       <c r="E26" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F26" t="n" s="1">
-        <v>2374.824</v>
+        <v>267983.4</v>
       </c>
       <c r="G26" t="n" s="1">
-        <v>192.5</v>
+        <v>49751.4</v>
       </c>
       <c r="H26" t="n" s="1">
-        <v>513.34</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="27">
@@ -1022,22 +983,22 @@
         <v>3637.2</v>
       </c>
       <c r="C27" t="n" s="1">
-        <v>3958.04</v>
+        <v>4466.39</v>
       </c>
       <c r="D27" t="n" s="1">
-        <v>320.84</v>
+        <v>829.19</v>
       </c>
       <c r="E27" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F27" t="n" s="1">
-        <v>2374.824</v>
+        <v>267983.4</v>
       </c>
       <c r="G27" t="n" s="1">
-        <v>192.5</v>
+        <v>49751.4</v>
       </c>
       <c r="H27" t="n" s="1">
-        <v>513.34</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="28">
@@ -1054,16 +1015,16 @@
         <v>829.19</v>
       </c>
       <c r="E28" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F28" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G28" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H28" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="29">
@@ -1080,16 +1041,16 @@
         <v>829.19</v>
       </c>
       <c r="E29" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F29" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G29" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H29" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="30">
@@ -1106,16 +1067,16 @@
         <v>829.19</v>
       </c>
       <c r="E30" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F30" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G30" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H30" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="31">
@@ -1132,16 +1093,16 @@
         <v>829.19</v>
       </c>
       <c r="E31" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F31" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G31" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H31" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="32">
@@ -1158,16 +1119,16 @@
         <v>829.19</v>
       </c>
       <c r="E32" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F32" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G32" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H32" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="33">
@@ -1184,16 +1145,16 @@
         <v>829.19</v>
       </c>
       <c r="E33" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F33" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G33" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H33" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="34">
@@ -1210,16 +1171,16 @@
         <v>829.19</v>
       </c>
       <c r="E34" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F34" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G34" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H34" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="35">
@@ -1236,16 +1197,16 @@
         <v>829.19</v>
       </c>
       <c r="E35" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F35" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G35" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H35" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="36">
@@ -1262,16 +1223,16 @@
         <v>829.19</v>
       </c>
       <c r="E36" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F36" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G36" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H36" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="37">
@@ -1288,16 +1249,16 @@
         <v>829.19</v>
       </c>
       <c r="E37" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F37" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G37" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H37" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="38">
@@ -1314,16 +1275,16 @@
         <v>829.19</v>
       </c>
       <c r="E38" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F38" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G38" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H38" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="39">
@@ -1340,16 +1301,16 @@
         <v>829.19</v>
       </c>
       <c r="E39" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F39" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G39" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H39" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="40">
@@ -1366,16 +1327,16 @@
         <v>829.19</v>
       </c>
       <c r="E40" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F40" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G40" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H40" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="41">
@@ -1392,16 +1353,16 @@
         <v>829.19</v>
       </c>
       <c r="E41" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F41" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G41" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H41" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="42">
@@ -1418,16 +1379,16 @@
         <v>829.19</v>
       </c>
       <c r="E42" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F42" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G42" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H42" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="43">
@@ -1444,16 +1405,16 @@
         <v>829.19</v>
       </c>
       <c r="E43" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F43" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G43" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H43" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="44">
@@ -1470,16 +1431,16 @@
         <v>829.19</v>
       </c>
       <c r="E44" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F44" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G44" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H44" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="45">
@@ -1496,16 +1457,16 @@
         <v>829.19</v>
       </c>
       <c r="E45" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F45" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G45" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H45" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="46">
@@ -1522,16 +1483,16 @@
         <v>829.19</v>
       </c>
       <c r="E46" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F46" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G46" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H46" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="47">
@@ -1548,16 +1509,16 @@
         <v>829.19</v>
       </c>
       <c r="E47" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F47" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G47" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H47" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="48">
@@ -1574,16 +1535,16 @@
         <v>829.19</v>
       </c>
       <c r="E48" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F48" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G48" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H48" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="49">
@@ -1600,16 +1561,16 @@
         <v>829.19</v>
       </c>
       <c r="E49" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F49" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G49" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H49" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="50">
@@ -1626,16 +1587,16 @@
         <v>829.19</v>
       </c>
       <c r="E50" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F50" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G50" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H50" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="51">
@@ -1652,16 +1613,16 @@
         <v>829.19</v>
       </c>
       <c r="E51" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>218232.0</v>
       </c>
       <c r="F51" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>267983.4</v>
       </c>
       <c r="G51" t="n" s="1">
-        <v>497.51</v>
+        <v>49751.4</v>
       </c>
       <c r="H51" t="n" s="1">
-        <v>1326.7</v>
+        <v>50580.59</v>
       </c>
     </row>
     <row r="52">
@@ -1669,25 +1630,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="n" s="1">
-        <v>3637.2</v>
+        <v>4111.85</v>
       </c>
       <c r="C52" t="n" s="1">
-        <v>4466.39</v>
+        <v>5951.02</v>
       </c>
       <c r="D52" t="n" s="1">
-        <v>829.19</v>
+        <v>1839.17</v>
       </c>
       <c r="E52" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F52" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>357061.2</v>
       </c>
       <c r="G52" t="n" s="1">
-        <v>497.51</v>
+        <v>110350.2</v>
       </c>
       <c r="H52" t="n" s="1">
-        <v>1326.7</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="53">
@@ -1695,25 +1656,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="n" s="1">
-        <v>3637.2</v>
+        <v>4111.85</v>
       </c>
       <c r="C53" t="n" s="1">
-        <v>4466.39</v>
+        <v>5951.02</v>
       </c>
       <c r="D53" t="n" s="1">
-        <v>829.19</v>
+        <v>1839.17</v>
       </c>
       <c r="E53" t="n" s="1">
-        <v>2182.3199999999997</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F53" t="n" s="1">
-        <v>2679.8340000000003</v>
+        <v>357061.2</v>
       </c>
       <c r="G53" t="n" s="1">
-        <v>497.51</v>
+        <v>110350.2</v>
       </c>
       <c r="H53" t="n" s="1">
-        <v>1326.7</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="54">
@@ -1730,16 +1691,16 @@
         <v>1839.17</v>
       </c>
       <c r="E54" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F54" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G54" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H54" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="55">
@@ -1756,16 +1717,16 @@
         <v>1839.17</v>
       </c>
       <c r="E55" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F55" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G55" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H55" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="56">
@@ -1782,16 +1743,16 @@
         <v>1839.17</v>
       </c>
       <c r="E56" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F56" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G56" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H56" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="57">
@@ -1808,16 +1769,16 @@
         <v>1839.17</v>
       </c>
       <c r="E57" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F57" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G57" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H57" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="58">
@@ -1834,16 +1795,16 @@
         <v>1839.17</v>
       </c>
       <c r="E58" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F58" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G58" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H58" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="59">
@@ -1860,16 +1821,16 @@
         <v>1839.17</v>
       </c>
       <c r="E59" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F59" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G59" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H59" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="60">
@@ -1886,16 +1847,16 @@
         <v>1839.17</v>
       </c>
       <c r="E60" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F60" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G60" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H60" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="61">
@@ -1912,16 +1873,16 @@
         <v>1839.17</v>
       </c>
       <c r="E61" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F61" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G61" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H61" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="62">
@@ -1938,16 +1899,16 @@
         <v>1839.17</v>
       </c>
       <c r="E62" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F62" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G62" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H62" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="63">
@@ -1964,16 +1925,16 @@
         <v>1839.17</v>
       </c>
       <c r="E63" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F63" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G63" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H63" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="64">
@@ -1990,16 +1951,16 @@
         <v>1839.17</v>
       </c>
       <c r="E64" t="n" s="1">
-        <v>2467.11</v>
+        <v>246711.00000000003</v>
       </c>
       <c r="F64" t="n" s="1">
-        <v>3570.612</v>
+        <v>357061.2</v>
       </c>
       <c r="G64" t="n" s="1">
-        <v>1103.5</v>
+        <v>110350.2</v>
       </c>
       <c r="H64" t="n" s="1">
-        <v>2942.67</v>
+        <v>112189.37</v>
       </c>
     </row>
     <row r="65">
@@ -2007,25 +1968,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="n" s="1">
-        <v>4111.85</v>
+        <v>4354.45</v>
       </c>
       <c r="C65" t="n" s="1">
-        <v>5951.02</v>
+        <v>6840.7</v>
       </c>
       <c r="D65" t="n" s="1">
-        <v>1839.17</v>
+        <v>2486.25</v>
       </c>
       <c r="E65" t="n" s="1">
-        <v>2467.11</v>
+        <v>261267.0</v>
       </c>
       <c r="F65" t="n" s="1">
-        <v>3570.612</v>
+        <v>410442.0</v>
       </c>
       <c r="G65" t="n" s="1">
-        <v>1103.5</v>
+        <v>149175.0</v>
       </c>
       <c r="H65" t="n" s="1">
-        <v>2942.67</v>
+        <v>151661.25</v>
       </c>
     </row>
     <row r="66">
@@ -2033,25 +1994,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="n" s="1">
-        <v>4111.85</v>
+        <v>4354.45</v>
       </c>
       <c r="C66" t="n" s="1">
-        <v>5951.02</v>
+        <v>6840.7</v>
       </c>
       <c r="D66" t="n" s="1">
-        <v>1839.17</v>
+        <v>2486.25</v>
       </c>
       <c r="E66" t="n" s="1">
-        <v>2467.11</v>
+        <v>261267.0</v>
       </c>
       <c r="F66" t="n" s="1">
-        <v>3570.612</v>
+        <v>410442.0</v>
       </c>
       <c r="G66" t="n" s="1">
-        <v>1103.5</v>
+        <v>149175.0</v>
       </c>
       <c r="H66" t="n" s="1">
-        <v>2942.67</v>
+        <v>151661.25</v>
       </c>
     </row>
     <row r="67">
@@ -2068,380 +2029,42 @@
         <v>2486.25</v>
       </c>
       <c r="E67" t="n" s="1">
-        <v>2612.6699999999996</v>
+        <v>261267.0</v>
       </c>
       <c r="F67" t="n" s="1">
-        <v>4104.42</v>
+        <v>410442.0</v>
       </c>
       <c r="G67" t="n" s="1">
-        <v>1491.75</v>
+        <v>149175.0</v>
       </c>
       <c r="H67" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="B68" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C68" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D68" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E68" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F68" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G68" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H68" t="n" s="1">
-        <v>3978.0</v>
+        <v>151661.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B69" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C69" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D69" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E69" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F69" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G69" t="n" s="1">
-        <v>1491.75</v>
+        <v>74</v>
+      </c>
+      <c r="B69" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="D69" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="E69" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="G69" t="s" s="1">
+        <v>74</v>
       </c>
       <c r="H69" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="B70" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C70" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D70" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E70" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F70" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G70" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H70" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="B71" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C71" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D71" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E71" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F71" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G71" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H71" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="B72" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C72" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D72" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E72" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F72" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G72" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H72" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="B73" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C73" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D73" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E73" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F73" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G73" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H73" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="B74" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C74" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D74" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E74" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F74" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G74" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H74" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="B75" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C75" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D75" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E75" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F75" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G75" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H75" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B76" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C76" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D76" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E76" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F76" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G76" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H76" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B77" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C77" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D77" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E77" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F77" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G77" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H77" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B78" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C78" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D78" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E78" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F78" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G78" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H78" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="B79" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C79" t="n" s="1">
-        <v>6840.7</v>
-      </c>
-      <c r="D79" t="n" s="1">
-        <v>2486.25</v>
-      </c>
-      <c r="E79" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F79" t="n" s="1">
-        <v>4104.42</v>
-      </c>
-      <c r="G79" t="n" s="1">
-        <v>1491.75</v>
-      </c>
-      <c r="H79" t="n" s="1">
-        <v>3978.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B80" t="n" s="1">
-        <v>4354.45</v>
-      </c>
-      <c r="C80" t="n" s="1">
-        <v>7088.33</v>
-      </c>
-      <c r="D80" t="n" s="1">
-        <v>2733.88</v>
-      </c>
-      <c r="E80" t="n" s="1">
-        <v>2612.6699999999996</v>
-      </c>
-      <c r="F80" t="n" s="1">
-        <v>4252.998</v>
-      </c>
-      <c r="G80" t="n" s="1">
-        <v>1640.33</v>
-      </c>
-      <c r="H80" t="n" s="1">
-        <v>4374.21</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B82" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="C82" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="D82" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="E82" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="F82" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="G82" t="s" s="1">
-        <v>87</v>
-      </c>
-      <c r="H82" t="n" s="1">
-        <v>138888.45999999996</v>
+        <v>3591937.420000002</v>
       </c>
     </row>
   </sheetData>
